--- a/02_MasterWifoMannheim/99_Backup/Course1.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_2B59D2BFD3F059049F7A2B1159F798717C07FEB5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{598AF769-37A4-407B-B660-F21F7A3BC245}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_2B59D2BFD3F0DB4A277B3D11596308707541FFCB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,6 +61,9 @@
     <t>Prerequisites</t>
   </si>
   <si>
+    <t>Data Management (DM), Architecture and Organization (AR), Algorithmic Foundations (AL), Software Development Fundamentals (SDF), Foundations of Programming Languages (FPL)</t>
+  </si>
+  <si>
     <t>Aim of module</t>
   </si>
   <si>
@@ -118,7 +121,7 @@
     <t>Offering</t>
   </si>
   <si>
-    <t>Spring semester</t>
+    <t>SSS</t>
   </si>
   <si>
     <t>Lecturer</t>
@@ -152,9 +155,6 @@
   </si>
   <si>
     <t>1st / 2nd semester</t>
-  </si>
-  <si>
-    <t>Data Management (DM), Architecture and Organization (AR), Algorithmic Foundations (AL), Software Development Fundamentals (SDF), Foundations of Programming Languages (FPL)</t>
   </si>
 </sst>
 </file>
@@ -211,13 +211,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,14 +520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="255.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
@@ -544,7 +536,7 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -552,7 +544,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -560,7 +552,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -568,7 +560,7 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -576,7 +568,7 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -584,7 +576,7 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -592,136 +584,136 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>44</v>
+      <c r="B8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
         <v>35</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2" t="s">
         <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
